--- a/biology/Zoologie/Cyclopidae/Cyclopidae.xlsx
+++ b/biology/Zoologie/Cyclopidae/Cyclopidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyclopidae sont une famille de crustacés copépodes.
-Une vingtaine d'espèces carnivores dont la taille atteint ou dépasse 1,5 mm sont utilisées comme agent de lutte biologique contre les larves de moustiques. Elles appartiennent aux genres Acanthocyclops,  Diacylops, Macrocyclops, Megacyclops, et Mesocyclops[1].
-Cette méthode est utilisée dans de nombreux pays, notamment en Asie du Sud-Est, Pacifique et Amérique latine[1].
+Une vingtaine d'espèces carnivores dont la taille atteint ou dépasse 1,5 mm sont utilisées comme agent de lutte biologique contre les larves de moustiques. Elles appartiennent aux genres Acanthocyclops,  Diacylops, Macrocyclops, Megacyclops, et Mesocyclops.
+Cette méthode est utilisée dans de nombreux pays, notamment en Asie du Sud-Est, Pacifique et Amérique latine.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthocyclops Kiefer, 1927
